--- a/report/pics/graphs_nonseq.xlsx
+++ b/report/pics/graphs_nonseq.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t xml:space="preserve">Logistic Regression</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">doc2vec_f100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">doc2vec_f300</t>
@@ -251,7 +248,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -359,13 +356,13 @@
                   <c:v>0.3706</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>0.0039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,13 +466,13 @@
                   <c:v>0.253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>0.1437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>0.1971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>0.1705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,13 +576,13 @@
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,11 +590,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57860478"/>
-        <c:axId val="70943110"/>
+        <c:axId val="91114153"/>
+        <c:axId val="64737230"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57860478"/>
+        <c:axId val="91114153"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,14 +629,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70943110"/>
+        <c:crossAx val="64737230"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70943110"/>
+        <c:axId val="64737230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57860478"/>
+        <c:crossAx val="91114153"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -757,7 +754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -865,13 +862,13 @@
                   <c:v>0.837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>0.8015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>0.8025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>0.8025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,13 +972,13 @@
                   <c:v>0.8225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>0.6924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>0.6387</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>0.7073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,13 +1082,13 @@
                   <c:v>0.8253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>0.8025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>0.8025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>0.8025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,11 +1096,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="65839177"/>
-        <c:axId val="5501398"/>
+        <c:axId val="50775886"/>
+        <c:axId val="70476276"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65839177"/>
+        <c:axId val="50775886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,14 +1135,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5501398"/>
+        <c:crossAx val="70476276"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5501398"/>
+        <c:axId val="70476276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,1104 +1224,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65839177"/>
+        <c:crossAx val="50775886"/>
         <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>tfidfv0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tfidfv1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>doc2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>doc2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>doc2vec_f600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.481</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.532</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3393</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4191</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4749</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3568</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3706</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>tfidfv0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tfidfv1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>doc2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>doc2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>doc2vec_f600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$4:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.2676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3219</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2585</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2559</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.253</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>tfidfv0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tfidfv1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>doc2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>doc2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>doc2vec_f600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$4:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.4795</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4929</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5285</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.340831</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="78564612"/>
-        <c:axId val="91363394"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="78564612"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91363394"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="91363394"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>F1</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="78564612"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>tfidfv0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tfidfv1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>doc2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>doc2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>doc2vec_f600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.8232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8392</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8353</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8448</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8513</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.834</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.837</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>tfidfv0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tfidfv1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>doc2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>doc2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>doc2vec_f600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$4:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.8354</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8432</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8233</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8237</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8228</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8225</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>tfidfv0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>tfidfv1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>doc2vec_f100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>doc2vec_f300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>doc2vec_f600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.8542</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8575</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8329</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8406</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.837748</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8253</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="31538243"/>
-        <c:axId val="28194146"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="31538243"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28194146"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="28194146"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31538243"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2369,10 +1270,10 @@
       <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>645120</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2381,7 +1282,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="732960" y="2199240"/>
-        <a:ext cx="4358160" cy="2724840"/>
+        <a:ext cx="5400000" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2393,16 +1294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2410,72 +1311,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5320080" y="2180160"/>
-        <a:ext cx="4884120" cy="2746800"/>
+        <a:off x="6349680" y="2256840"/>
+        <a:ext cx="5400000" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>753480</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="753480" y="5276520"/>
-        <a:ext cx="4338000" cy="2440080"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514080</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5330160" y="5227920"/>
-        <a:ext cx="4506840" cy="2534760"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2491,8 +1332,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2879,123 +1720,123 @@
       <c r="A11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>18</v>
+      <c r="B11" s="0" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.8015</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.2031</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.6924</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.1437</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.8025</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>18</v>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.8025</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.2122</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.6387</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.1971</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.8025</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.8025</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.2026</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.2044</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.7073</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.1705</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.8025</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report/pics/graphs_nonseq.xlsx
+++ b/report/pics/graphs_nonseq.xlsx
@@ -248,7 +248,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -590,11 +590,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91114153"/>
-        <c:axId val="64737230"/>
+        <c:axId val="62027072"/>
+        <c:axId val="43389558"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91114153"/>
+        <c:axId val="62027072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,14 +629,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64737230"/>
+        <c:crossAx val="43389558"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64737230"/>
+        <c:axId val="43389558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91114153"/>
+        <c:crossAx val="62027072"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -754,7 +754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1096,11 +1096,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="50775886"/>
-        <c:axId val="70476276"/>
+        <c:axId val="43257935"/>
+        <c:axId val="87957304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50775886"/>
+        <c:axId val="43257935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,16 +1135,18 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70476276"/>
+        <c:crossAx val="87957304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70476276"/>
+        <c:axId val="87957304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1224,8 +1226,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50775886"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="43257935"/>
+        <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1271,9 +1273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1282,7 +1284,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="732960" y="2199240"/>
-        <a:ext cx="5400000" cy="3240000"/>
+        <a:ext cx="5399640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1301,9 +1303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>801360</xdr:colOff>
+      <xdr:colOff>801000</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,7 +1314,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6349680" y="2256840"/>
-        <a:ext cx="5400000" cy="3240000"/>
+        <a:ext cx="5399640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">

--- a/report/pics/graphs_nonseq.xlsx
+++ b/report/pics/graphs_nonseq.xlsx
@@ -58,19 +58,19 @@
     <t xml:space="preserve">tfidfv1</t>
   </si>
   <si>
-    <t xml:space="preserve">word2vec_f100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word2vec_f300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word2vec_f600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word2vec_bio02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word2vec_bio30</t>
+    <t xml:space="preserve">w2v_ave_f100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w2v_ave_f300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w2v_ave_f600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w2v_ave_bio02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w2v_ave_bio30</t>
   </si>
   <si>
     <t xml:space="preserve">doc2vec_f100</t>
@@ -248,7 +248,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -302,19 +302,19 @@
                   <c:v>tfidfv1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
+                  <c:v>w2v_ave_f100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
+                  <c:v>w2v_ave_f300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
+                  <c:v>w2v_ave_f600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
+                  <c:v>w2v_ave_bio02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
+                  <c:v>w2v_ave_bio30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>doc2vec_f100</c:v>
@@ -412,19 +412,19 @@
                   <c:v>tfidfv1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
+                  <c:v>w2v_ave_f100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
+                  <c:v>w2v_ave_f300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
+                  <c:v>w2v_ave_f600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
+                  <c:v>w2v_ave_bio02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
+                  <c:v>w2v_ave_bio30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>doc2vec_f100</c:v>
@@ -522,19 +522,19 @@
                   <c:v>tfidfv1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
+                  <c:v>w2v_ave_f100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
+                  <c:v>w2v_ave_f300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
+                  <c:v>w2v_ave_f600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
+                  <c:v>w2v_ave_bio02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
+                  <c:v>w2v_ave_bio30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>doc2vec_f100</c:v>
@@ -590,11 +590,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="62027072"/>
-        <c:axId val="43389558"/>
+        <c:axId val="81044055"/>
+        <c:axId val="60795907"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62027072"/>
+        <c:axId val="81044055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,14 +629,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43389558"/>
+        <c:crossAx val="60795907"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43389558"/>
+        <c:axId val="60795907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62027072"/>
+        <c:crossAx val="81044055"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -754,7 +754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -808,19 +808,19 @@
                   <c:v>tfidfv1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
+                  <c:v>w2v_ave_f100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
+                  <c:v>w2v_ave_f300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
+                  <c:v>w2v_ave_f600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
+                  <c:v>w2v_ave_bio02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
+                  <c:v>w2v_ave_bio30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>doc2vec_f100</c:v>
@@ -918,19 +918,19 @@
                   <c:v>tfidfv1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
+                  <c:v>w2v_ave_f100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
+                  <c:v>w2v_ave_f300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
+                  <c:v>w2v_ave_f600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
+                  <c:v>w2v_ave_bio02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
+                  <c:v>w2v_ave_bio30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>doc2vec_f100</c:v>
@@ -1028,19 +1028,19 @@
                   <c:v>tfidfv1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>word2vec_f100</c:v>
+                  <c:v>w2v_ave_f100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>word2vec_f300</c:v>
+                  <c:v>w2v_ave_f300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>word2vec_f600</c:v>
+                  <c:v>w2v_ave_f600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>word2vec_bio02</c:v>
+                  <c:v>w2v_ave_bio02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>word2vec_bio30</c:v>
+                  <c:v>w2v_ave_bio30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>doc2vec_f100</c:v>
@@ -1096,11 +1096,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43257935"/>
-        <c:axId val="87957304"/>
+        <c:axId val="13581563"/>
+        <c:axId val="56058573"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43257935"/>
+        <c:axId val="13581563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,14 +1135,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87957304"/>
+        <c:crossAx val="56058573"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87957304"/>
+        <c:axId val="56058573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1226,7 +1226,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43257935"/>
+        <c:crossAx val="13581563"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1273,9 +1273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>60480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1284,7 +1284,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="732960" y="2199240"/>
-        <a:ext cx="5399640" cy="3239640"/>
+        <a:ext cx="5399280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1303,9 +1303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>801000</xdr:colOff>
+      <xdr:colOff>800640</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1314,7 +1314,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6349680" y="2256840"/>
-        <a:ext cx="5399640" cy="3239640"/>
+        <a:ext cx="5399280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1334,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
